--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrp-Mc4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrp-Mc4r.xlsx
@@ -82,16 +82,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Agrp</t>
   </si>
   <si>
     <t>Mc4r</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,54 +543,54 @@
         <v>2.348761</v>
       </c>
       <c r="I2">
-        <v>0.8743994174544757</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="J2">
-        <v>0.8743994174544756</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.006923666666666667</v>
+        <v>0.309635</v>
       </c>
       <c r="N2">
-        <v>0.020771</v>
+        <v>0.928905</v>
       </c>
       <c r="O2">
-        <v>0.02599087797889047</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.02599087797889047</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.005420679414555556</v>
+        <v>0.2424195374116667</v>
       </c>
       <c r="R2">
-        <v>0.048786114731</v>
+        <v>2.181775836705</v>
       </c>
       <c r="S2">
-        <v>0.02272640856387219</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="T2">
-        <v>0.02272640856387218</v>
+        <v>0.342817505175991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7829203333333333</v>
+        <v>0.8792006666666667</v>
       </c>
       <c r="H3">
-        <v>2.348761</v>
+        <v>2.637602</v>
       </c>
       <c r="I3">
-        <v>0.8743994174544757</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="J3">
-        <v>0.8743994174544756</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,42 +617,42 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2594646666666667</v>
+        <v>0.309635</v>
       </c>
       <c r="N3">
-        <v>0.778394</v>
+        <v>0.928905</v>
       </c>
       <c r="O3">
-        <v>0.9740091220211096</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9740091220211096</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2031401633148889</v>
+        <v>0.2722312984233333</v>
       </c>
       <c r="R3">
-        <v>1.828261469834</v>
+        <v>2.45008168581</v>
       </c>
       <c r="S3">
-        <v>0.8516730088906035</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="T3">
-        <v>0.8516730088906034</v>
+        <v>0.3849757967231252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,78 +661,78 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1124603333333333</v>
+        <v>0.05636633333333333</v>
       </c>
       <c r="H4">
-        <v>0.337381</v>
+        <v>0.169099</v>
       </c>
       <c r="I4">
-        <v>0.1256005825455244</v>
+        <v>0.02468113925076025</v>
       </c>
       <c r="J4">
-        <v>0.1256005825455244</v>
+        <v>0.02468113925076025</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006923666666666667</v>
+        <v>0.309635</v>
       </c>
       <c r="N4">
-        <v>0.020771</v>
+        <v>0.928905</v>
       </c>
       <c r="O4">
-        <v>0.02599087797889047</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.02599087797889047</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0007786378612222222</v>
+        <v>0.01745298962166666</v>
       </c>
       <c r="R4">
-        <v>0.007007740751</v>
+        <v>0.157076906595</v>
       </c>
       <c r="S4">
-        <v>0.003264469415018284</v>
+        <v>0.02468113925076025</v>
       </c>
       <c r="T4">
-        <v>0.003264469415018284</v>
+        <v>0.02468113925076025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1124603333333333</v>
+        <v>0.5652943333333332</v>
       </c>
       <c r="H5">
-        <v>0.337381</v>
+        <v>1.695883</v>
       </c>
       <c r="I5">
-        <v>0.1256005825455244</v>
+        <v>0.2475255588501236</v>
       </c>
       <c r="J5">
-        <v>0.1256005825455244</v>
+        <v>0.2475255588501236</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2594646666666667</v>
+        <v>0.309635</v>
       </c>
       <c r="N5">
-        <v>0.778394</v>
+        <v>0.928905</v>
       </c>
       <c r="O5">
-        <v>0.9740091220211096</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9740091220211096</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.02917948290155556</v>
+        <v>0.1750349109016666</v>
       </c>
       <c r="R5">
-        <v>0.262615346114</v>
+        <v>1.575314198115</v>
       </c>
       <c r="S5">
-        <v>0.1223361131305061</v>
+        <v>0.2475255588501236</v>
       </c>
       <c r="T5">
-        <v>0.1223361131305061</v>
+        <v>0.2475255588501236</v>
       </c>
     </row>
   </sheetData>
